--- a/assets/Subject.xlsx
+++ b/assets/Subject.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
